--- a/models/mini_fixedwing_13/team13.xlsx
+++ b/models/mini_fixedwing_13/team13.xlsx
@@ -559,7 +559,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,6 +576,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF46BDC6"/>
         <bgColor rgb="FF339966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF72BF44"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
@@ -625,7 +631,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -666,7 +672,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -678,7 +692,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -686,7 +700,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -702,11 +716,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -783,7 +801,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF4285F4"/>
       <rgbColor rgb="FF46BDC6"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF72BF44"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -813,9 +831,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>292680</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -829,7 +847,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11220840" y="6953040"/>
-          <a:ext cx="6114600" cy="3790440"/>
+          <a:ext cx="6114240" cy="3790080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -850,9 +868,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>349920</xdr:colOff>
+      <xdr:colOff>349560</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -866,7 +884,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11163600" y="4228920"/>
-          <a:ext cx="6229080" cy="2676240"/>
+          <a:ext cx="6228720" cy="2675880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -888,8 +906,8 @@
   </sheetPr>
   <dimension ref="A1:Z228"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G126" activeCellId="0" sqref="G126"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="1" sqref="B13 D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1308,7 +1326,7 @@
       <c r="B13" s="10" t="n">
         <v>-0.1814</v>
       </c>
-      <c r="C13" s="10" t="n">
+      <c r="C13" s="11" t="n">
         <v>-0.0002</v>
       </c>
       <c r="D13" s="10" t="n">
@@ -1431,22 +1449,22 @@
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="11" t="n">
+      <c r="B16" s="12" t="n">
         <v>0.0018653</v>
       </c>
-      <c r="C16" s="11" t="n">
+      <c r="C16" s="13" t="n">
         <v>6.4E-006</v>
       </c>
-      <c r="D16" s="11" t="n">
+      <c r="D16" s="13" t="n">
         <v>0.0004317</v>
       </c>
-      <c r="E16" s="11" t="n">
+      <c r="E16" s="12" t="n">
         <v>0.013012</v>
       </c>
-      <c r="F16" s="11" t="n">
+      <c r="F16" s="13" t="n">
         <v>3.7E-006</v>
       </c>
-      <c r="G16" s="11" t="n">
+      <c r="G16" s="12" t="n">
         <v>0.01468</v>
       </c>
       <c r="H16" s="2"/>
@@ -1475,9 +1493,9 @@
         <v>36</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="D17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="2"/>
       <c r="I17" s="8" t="s">
         <v>37</v>
@@ -1508,9 +1526,9 @@
         <v>0.01</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="D18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="2"/>
       <c r="I18" s="8" t="s">
         <v>39</v>
@@ -1602,7 +1620,7 @@
       <c r="C21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="2"/>
@@ -1673,13 +1691,13 @@
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="10" t="n">
+      <c r="B23" s="11" t="n">
         <v>-0.1319</v>
       </c>
-      <c r="C23" s="10" t="n">
+      <c r="C23" s="11" t="n">
         <v>0.0525</v>
       </c>
-      <c r="D23" s="10" t="n">
+      <c r="D23" s="11" t="n">
         <v>-0.0974</v>
       </c>
       <c r="E23" s="6" t="n">
@@ -1787,7 +1805,7 @@
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="10" t="n">
+      <c r="B26" s="11" t="n">
         <v>0.00066</v>
       </c>
       <c r="C26" s="2"/>
@@ -1851,22 +1869,22 @@
       <c r="A28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="11" t="n">
+      <c r="B28" s="13" t="n">
         <v>8.2E-006</v>
       </c>
-      <c r="C28" s="11" t="n">
+      <c r="C28" s="13" t="n">
         <v>-4.6E-006</v>
       </c>
-      <c r="D28" s="11" t="n">
+      <c r="D28" s="13" t="n">
         <v>8.5E-006</v>
       </c>
-      <c r="E28" s="11" t="n">
+      <c r="E28" s="13" t="n">
         <v>1.81E-005</v>
       </c>
-      <c r="F28" s="11" t="n">
+      <c r="F28" s="13" t="n">
         <v>-3.4E-006</v>
       </c>
-      <c r="G28" s="11" t="n">
+      <c r="G28" s="13" t="n">
         <v>1.35E-005</v>
       </c>
       <c r="H28" s="2"/>
@@ -1957,10 +1975,10 @@
         <v>41</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -1985,14 +2003,14 @@
       <c r="A32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="10" t="n">
+      <c r="B32" s="11" t="n">
         <v>0.025</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -2017,7 +2035,7 @@
       <c r="A33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="10" t="n">
+      <c r="B33" s="11" t="n">
         <v>0.005</v>
       </c>
       <c r="C33" s="2"/>
@@ -2081,7 +2099,7 @@
       <c r="C35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F35" s="2"/>
@@ -2152,13 +2170,13 @@
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="10" t="n">
+      <c r="B37" s="11" t="n">
         <v>-0.1319</v>
       </c>
-      <c r="C37" s="10" t="n">
+      <c r="C37" s="11" t="n">
         <v>-0.0525</v>
       </c>
-      <c r="D37" s="10" t="n">
+      <c r="D37" s="11" t="n">
         <v>-0.0974</v>
       </c>
       <c r="E37" s="6" t="n">
@@ -2278,7 +2296,7 @@
       <c r="A40" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="10" t="n">
+      <c r="B40" s="11" t="n">
         <v>0.00066</v>
       </c>
       <c r="C40" s="2"/>
@@ -2350,22 +2368,22 @@
       <c r="A42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="11" t="n">
+      <c r="B42" s="13" t="n">
         <v>8.2E-006</v>
       </c>
-      <c r="C42" s="11" t="n">
+      <c r="C42" s="13" t="n">
         <v>4.6E-006</v>
       </c>
-      <c r="D42" s="11" t="n">
+      <c r="D42" s="13" t="n">
         <v>8.5E-006</v>
       </c>
-      <c r="E42" s="11" t="n">
+      <c r="E42" s="13" t="n">
         <v>1.81E-005</v>
       </c>
-      <c r="F42" s="11" t="n">
+      <c r="F42" s="13" t="n">
         <v>3.4E-006</v>
       </c>
-      <c r="G42" s="11" t="n">
+      <c r="G42" s="13" t="n">
         <v>1.35E-005</v>
       </c>
       <c r="H42" s="2"/>
@@ -2428,10 +2446,10 @@
         <v>0.01</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -2460,10 +2478,10 @@
         <v>41</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -2520,7 +2538,7 @@
       <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="10" t="n">
+      <c r="B47" s="11" t="n">
         <v>0.005</v>
       </c>
       <c r="C47" s="2"/>
@@ -2584,7 +2602,7 @@
       <c r="C49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="17" t="s">
         <v>53</v>
       </c>
       <c r="F49" s="2"/>
@@ -2817,7 +2835,7 @@
       <c r="A56" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="16" t="n">
+      <c r="B56" s="18" t="n">
         <v>1E-006</v>
       </c>
       <c r="C56" s="6" t="n">
@@ -2826,16 +2844,16 @@
       <c r="D56" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E56" s="16" t="n">
+      <c r="E56" s="18" t="n">
         <v>1E-007</v>
       </c>
       <c r="F56" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G56" s="16" t="n">
+      <c r="G56" s="18" t="n">
         <v>1E-006</v>
       </c>
-      <c r="K56" s="17" t="s">
+      <c r="K56" s="19" t="s">
         <v>54</v>
       </c>
       <c r="N56" s="2"/>
@@ -2864,7 +2882,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="K57" s="17" t="s">
+      <c r="K57" s="19" t="s">
         <v>55</v>
       </c>
       <c r="N57" s="2"/>
@@ -2889,11 +2907,11 @@
         <v>0.01</v>
       </c>
       <c r="C58" s="2"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="K58" s="18"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="K58" s="20"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -2999,7 +3017,7 @@
       <c r="C63" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F63" s="2"/>
@@ -3061,13 +3079,13 @@
       <c r="A65" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="10" t="n">
+      <c r="B65" s="11" t="n">
         <v>-0.6704</v>
       </c>
       <c r="C65" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D65" s="10" t="n">
+      <c r="D65" s="11" t="n">
         <v>0.0467</v>
       </c>
       <c r="E65" s="6" t="n">
@@ -3172,7 +3190,7 @@
       <c r="A68" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="10" t="n">
+      <c r="B68" s="11" t="n">
         <v>0.00156</v>
       </c>
       <c r="C68" s="2"/>
@@ -3244,22 +3262,22 @@
       <c r="A70" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B70" s="11" t="n">
+      <c r="B70" s="13" t="n">
         <v>5.3E-006</v>
       </c>
       <c r="C70" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D70" s="11" t="n">
+      <c r="D70" s="13" t="n">
         <v>-5.03E-005</v>
       </c>
-      <c r="E70" s="11" t="n">
+      <c r="E70" s="13" t="n">
         <v>0.0007492</v>
       </c>
       <c r="F70" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G70" s="11" t="n">
+      <c r="G70" s="13" t="n">
         <v>0.0007439</v>
       </c>
       <c r="H70" s="2"/>
@@ -3322,10 +3340,10 @@
         <v>0.01</v>
       </c>
       <c r="C72" s="2"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
@@ -3354,10 +3372,10 @@
         <v>-20</v>
       </c>
       <c r="C73" s="2"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
@@ -3386,10 +3404,10 @@
         <v>20</v>
       </c>
       <c r="C74" s="2"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -3470,7 +3488,7 @@
       <c r="C77" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="D77" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F77" s="2"/>
@@ -3539,13 +3557,13 @@
       <c r="A79" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="10" t="n">
+      <c r="B79" s="11" t="n">
         <v>-0.7054</v>
       </c>
       <c r="C79" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D79" s="10" t="n">
+      <c r="D79" s="11" t="n">
         <v>-0.0358</v>
       </c>
       <c r="E79" s="6" t="n">
@@ -3621,7 +3639,7 @@
       <c r="A81" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B81" s="10" t="n">
+      <c r="B81" s="11" t="n">
         <v>-0.0225</v>
       </c>
       <c r="C81" s="6" t="n">
@@ -3725,22 +3743,22 @@
       <c r="A84" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B84" s="11" t="n">
+      <c r="B84" s="13" t="n">
         <v>3.86E-005</v>
       </c>
       <c r="C84" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D84" s="11" t="n">
+      <c r="D84" s="13" t="n">
         <v>0.0001145</v>
       </c>
-      <c r="E84" s="11" t="n">
+      <c r="E84" s="13" t="n">
         <v>0.0023314</v>
       </c>
       <c r="F84" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G84" s="11" t="n">
+      <c r="G84" s="13" t="n">
         <v>0.0023586</v>
       </c>
       <c r="L84" s="2"/>
@@ -3766,11 +3784,11 @@
       <c r="B85" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -3794,11 +3812,11 @@
       <c r="B86" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -3822,11 +3840,11 @@
       <c r="B87" s="6" t="n">
         <v>-20</v>
       </c>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -3872,7 +3890,7 @@
       <c r="Z88" s="2"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="17" t="s">
+      <c r="A89" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B89" s="6" t="s">
@@ -3919,7 +3937,7 @@
       <c r="C91" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D91" s="13" t="s">
+      <c r="D91" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F91" s="2"/>
@@ -3983,13 +4001,13 @@
       <c r="A93" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B93" s="10" t="n">
+      <c r="B93" s="11" t="n">
         <v>-0.2903</v>
       </c>
-      <c r="C93" s="10" t="n">
+      <c r="C93" s="11" t="n">
         <v>0.2222</v>
       </c>
-      <c r="D93" s="10" t="n">
+      <c r="D93" s="11" t="n">
         <v>-0.0221</v>
       </c>
       <c r="E93" s="6" t="n">
@@ -4059,7 +4077,7 @@
       <c r="A95" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B95" s="10" t="n">
+      <c r="B95" s="11" t="n">
         <v>-0.025</v>
       </c>
       <c r="C95" s="6" t="n">
@@ -4161,22 +4179,22 @@
       <c r="A98" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B98" s="11" t="n">
+      <c r="B98" s="13" t="n">
         <v>0.0003099</v>
       </c>
-      <c r="C98" s="11" t="n">
+      <c r="C98" s="13" t="n">
         <v>-0.0003701</v>
       </c>
-      <c r="D98" s="11" t="n">
+      <c r="D98" s="13" t="n">
         <v>3.68E-005</v>
       </c>
-      <c r="E98" s="11" t="n">
+      <c r="E98" s="13" t="n">
         <v>0.0005289</v>
       </c>
-      <c r="F98" s="11" t="n">
+      <c r="F98" s="13" t="n">
         <v>-2.35E-005</v>
       </c>
-      <c r="G98" s="11" t="n">
+      <c r="G98" s="13" t="n">
         <v>0.0008334</v>
       </c>
       <c r="L98" s="2"/>
@@ -4231,10 +4249,10 @@
         <v>0.01</v>
       </c>
       <c r="C100" s="2"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -4259,10 +4277,10 @@
         <v>-20</v>
       </c>
       <c r="C101" s="2"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -4287,10 +4305,10 @@
         <v>20</v>
       </c>
       <c r="C102" s="2"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -4308,7 +4326,7 @@
       <c r="Z102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="17" t="s">
+      <c r="A103" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B103" s="6" t="s">
@@ -4355,7 +4373,7 @@
       <c r="C105" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D105" s="13" t="s">
+      <c r="D105" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F105" s="2"/>
@@ -4419,13 +4437,13 @@
       <c r="A107" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B107" s="10" t="n">
+      <c r="B107" s="11" t="n">
         <v>-0.2903</v>
       </c>
-      <c r="C107" s="10" t="n">
+      <c r="C107" s="11" t="n">
         <v>-0.2222</v>
       </c>
-      <c r="D107" s="10" t="n">
+      <c r="D107" s="11" t="n">
         <v>-0.0221</v>
       </c>
       <c r="E107" s="6" t="n">
@@ -4491,7 +4509,7 @@
       <c r="A109" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B109" s="10" t="n">
+      <c r="B109" s="11" t="n">
         <v>-0.025</v>
       </c>
       <c r="C109" s="6" t="n">
@@ -4587,22 +4605,22 @@
       <c r="A112" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B112" s="11" t="n">
+      <c r="B112" s="13" t="n">
         <v>0.0003099</v>
       </c>
-      <c r="C112" s="11" t="n">
+      <c r="C112" s="13" t="n">
         <v>0.00037</v>
       </c>
-      <c r="D112" s="11" t="n">
+      <c r="D112" s="13" t="n">
         <v>3.68E-005</v>
       </c>
-      <c r="E112" s="11" t="n">
+      <c r="E112" s="13" t="n">
         <v>0.000529</v>
       </c>
-      <c r="F112" s="11" t="n">
+      <c r="F112" s="13" t="n">
         <v>2.35E-005</v>
       </c>
-      <c r="G112" s="11" t="n">
+      <c r="G112" s="13" t="n">
         <v>0.000833</v>
       </c>
       <c r="N112" s="2"/>
@@ -4653,10 +4671,10 @@
         <v>0.01</v>
       </c>
       <c r="C114" s="2"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
@@ -4679,10 +4697,10 @@
         <v>-20</v>
       </c>
       <c r="C115" s="2"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
@@ -4724,7 +4742,7 @@
       <c r="Z116" s="2"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="17" t="s">
+      <c r="A117" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B117" s="6" t="s">
@@ -4789,7 +4807,7 @@
       <c r="A120" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B120" s="6" t="n">
+      <c r="B120" s="21" t="n">
         <v>0</v>
       </c>
       <c r="C120" s="2"/>
@@ -4853,7 +4871,7 @@
       <c r="A122" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B122" s="6" t="n">
+      <c r="B122" s="21" t="n">
         <v>0.64</v>
       </c>
       <c r="C122" s="2"/>
@@ -4981,7 +4999,7 @@
       <c r="A126" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B126" s="6" t="n">
+      <c r="B126" s="21" t="n">
         <v>-0.92</v>
       </c>
       <c r="C126" s="2"/>
@@ -5045,7 +5063,7 @@
       <c r="A128" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B128" s="19" t="n">
+      <c r="B128" s="22" t="n">
         <v>-0.6</v>
       </c>
       <c r="C128" s="6" t="n">
@@ -5113,7 +5131,7 @@
       <c r="A130" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B130" s="6" t="n">
+      <c r="B130" s="21" t="n">
         <v>1</v>
       </c>
       <c r="C130" s="6" t="n">
@@ -5149,7 +5167,7 @@
       <c r="A131" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B131" s="6" t="n">
+      <c r="B131" s="21" t="n">
         <v>0</v>
       </c>
       <c r="C131" s="6" t="n">
@@ -5185,7 +5203,7 @@
       <c r="A132" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B132" s="6" t="n">
+      <c r="B132" s="21" t="n">
         <v>4</v>
       </c>
       <c r="C132" s="2"/>
@@ -5326,7 +5344,7 @@
       <c r="A137" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B137" s="6" t="n">
+      <c r="B137" s="21" t="n">
         <v>0.64</v>
       </c>
       <c r="C137" s="2"/>
@@ -5444,7 +5462,7 @@
       <c r="A141" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B141" s="6" t="n">
+      <c r="B141" s="21" t="n">
         <v>-0.92</v>
       </c>
       <c r="C141" s="2"/>
@@ -5504,13 +5522,13 @@
       <c r="A143" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B143" s="19" t="n">
+      <c r="B143" s="22" t="n">
         <v>-0.65</v>
       </c>
       <c r="C143" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D143" s="10" t="n">
+      <c r="D143" s="11" t="n">
         <v>-0.0358</v>
       </c>
       <c r="E143" s="2"/>
@@ -5568,7 +5586,7 @@
       <c r="A145" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B145" s="6" t="n">
+      <c r="B145" s="21" t="n">
         <v>1</v>
       </c>
       <c r="C145" s="6" t="n">
@@ -5602,7 +5620,7 @@
       <c r="A146" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B146" s="6" t="n">
+      <c r="B146" s="21" t="n">
         <v>0</v>
       </c>
       <c r="C146" s="6" t="n">
@@ -5636,7 +5654,7 @@
       <c r="A147" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B147" s="6" t="n">
+      <c r="B147" s="21" t="n">
         <v>-4</v>
       </c>
       <c r="C147" s="2"/>
@@ -5707,7 +5725,7 @@
       <c r="A150" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B150" s="10" t="n">
+      <c r="B150" s="22" t="n">
         <v>0.9</v>
       </c>
       <c r="C150" s="2"/>
@@ -5891,7 +5909,7 @@
       <c r="A156" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B156" s="6" t="n">
+      <c r="B156" s="21" t="n">
         <v>-0.92</v>
       </c>
       <c r="C156" s="2"/>
@@ -5951,13 +5969,13 @@
       <c r="A158" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B158" s="19" t="n">
+      <c r="B158" s="22" t="n">
         <v>-0.12</v>
       </c>
       <c r="C158" s="6" t="n">
         <v>0.15</v>
       </c>
-      <c r="D158" s="10" t="n">
+      <c r="D158" s="11" t="n">
         <v>-0.02</v>
       </c>
       <c r="E158" s="2"/>
@@ -6015,7 +6033,7 @@
       <c r="A160" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B160" s="6" t="n">
+      <c r="B160" s="21" t="n">
         <v>1</v>
       </c>
       <c r="C160" s="6" t="n">
@@ -6049,7 +6067,7 @@
       <c r="A161" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B161" s="6" t="n">
+      <c r="B161" s="21" t="n">
         <v>0</v>
       </c>
       <c r="C161" s="6" t="n">
@@ -6083,7 +6101,7 @@
       <c r="A162" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B162" s="6" t="n">
+      <c r="B162" s="21" t="n">
         <v>-2</v>
       </c>
       <c r="C162" s="2"/>
@@ -6156,7 +6174,7 @@
       <c r="A165" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B165" s="10" t="n">
+      <c r="B165" s="22" t="n">
         <v>0.9</v>
       </c>
       <c r="C165" s="2"/>
@@ -6340,7 +6358,7 @@
       <c r="A171" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B171" s="6" t="n">
+      <c r="B171" s="21" t="n">
         <v>-0.92</v>
       </c>
       <c r="C171" s="2"/>
@@ -6400,13 +6418,13 @@
       <c r="A173" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B173" s="20" t="n">
+      <c r="B173" s="23" t="n">
         <v>-0.12</v>
       </c>
-      <c r="C173" s="10" t="n">
+      <c r="C173" s="11" t="n">
         <v>-0.15</v>
       </c>
-      <c r="D173" s="10" t="n">
+      <c r="D173" s="11" t="n">
         <v>-0.02</v>
       </c>
       <c r="E173" s="2"/>
@@ -6464,7 +6482,7 @@
       <c r="A175" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B175" s="6" t="n">
+      <c r="B175" s="21" t="n">
         <v>1</v>
       </c>
       <c r="C175" s="6" t="n">
@@ -6498,7 +6516,7 @@
       <c r="A176" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B176" s="6" t="n">
+      <c r="B176" s="21" t="n">
         <v>0</v>
       </c>
       <c r="C176" s="6" t="n">
@@ -6532,7 +6550,7 @@
       <c r="A177" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B177" s="6" t="n">
+      <c r="B177" s="21" t="n">
         <v>-2</v>
       </c>
       <c r="C177" s="2"/>
@@ -6637,13 +6655,13 @@
       <c r="A181" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B181" s="10" t="n">
+      <c r="B181" s="11" t="n">
         <v>-0.0047</v>
       </c>
       <c r="C181" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D181" s="10" t="n">
+      <c r="D181" s="11" t="n">
         <v>-0.0003</v>
       </c>
       <c r="E181" s="6" t="n">
@@ -6652,7 +6670,7 @@
       <c r="F181" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G181" s="10" t="n">
+      <c r="G181" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I181" s="8" t="s">
@@ -6754,7 +6772,7 @@
       <c r="A184" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B184" s="10" t="n">
+      <c r="B184" s="11" t="n">
         <v>0.0075</v>
       </c>
       <c r="C184" s="2"/>
@@ -6821,22 +6839,22 @@
       <c r="A186" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B186" s="11" t="n">
+      <c r="B186" s="13" t="n">
         <v>1.76E-005</v>
       </c>
-      <c r="C186" s="11" t="n">
+      <c r="C186" s="13" t="n">
         <v>5E-007</v>
       </c>
-      <c r="D186" s="11" t="n">
+      <c r="D186" s="13" t="n">
         <v>-3E-007</v>
       </c>
-      <c r="E186" s="11" t="n">
+      <c r="E186" s="13" t="n">
         <v>6.7E-006</v>
       </c>
-      <c r="F186" s="11" t="n">
+      <c r="F186" s="13" t="n">
         <v>-8.3E-006</v>
       </c>
-      <c r="G186" s="11" t="n">
+      <c r="G186" s="13" t="n">
         <v>1.14E-005</v>
       </c>
       <c r="J186" s="2"/>
@@ -6865,9 +6883,9 @@
         <v>101</v>
       </c>
       <c r="C187" s="2"/>
-      <c r="D187" s="21"/>
-      <c r="E187" s="22"/>
-      <c r="F187" s="12"/>
+      <c r="D187" s="24"/>
+      <c r="E187" s="25"/>
+      <c r="F187" s="14"/>
       <c r="G187" s="2"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
@@ -6918,10 +6936,10 @@
       <c r="Z188" s="2"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="17" t="s">
+      <c r="A189" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B189" s="10" t="s">
+      <c r="B189" s="11" t="s">
         <v>102</v>
       </c>
       <c r="J189" s="2"/>
@@ -6943,7 +6961,7 @@
       <c r="Z189" s="2"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="17" t="s">
+      <c r="A190" s="19" t="s">
         <v>103</v>
       </c>
       <c r="B190" s="6" t="n">
@@ -6968,10 +6986,10 @@
       <c r="Z190" s="2"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="17" t="s">
+      <c r="A191" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B191" s="23" t="n">
+      <c r="B191" s="26" t="n">
         <v>3</v>
       </c>
       <c r="I191" s="9" t="s">
@@ -6996,22 +7014,22 @@
       <c r="Z191" s="2"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="17" t="s">
+      <c r="A192" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B192" s="23" t="n">
+      <c r="B192" s="26" t="n">
         <v>0.2243</v>
       </c>
-      <c r="C192" s="10" t="n">
+      <c r="C192" s="11" t="n">
         <v>-0.4232</v>
       </c>
-      <c r="D192" s="10" t="n">
+      <c r="D192" s="11" t="n">
         <v>0.5704</v>
       </c>
-      <c r="E192" s="10" t="n">
+      <c r="E192" s="11" t="n">
         <v>-0.6002</v>
       </c>
-      <c r="F192" s="24" t="n">
+      <c r="F192" s="27" t="n">
         <v>0.1694</v>
       </c>
       <c r="I192" s="9" t="s">
@@ -7036,22 +7054,22 @@
       <c r="Z192" s="2"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="17" t="s">
+      <c r="A193" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B193" s="23" t="n">
+      <c r="B193" s="26" t="n">
         <v>0.1425</v>
       </c>
-      <c r="C193" s="10" t="n">
+      <c r="C193" s="11" t="n">
         <v>-0.4518</v>
       </c>
-      <c r="D193" s="10" t="n">
+      <c r="D193" s="11" t="n">
         <v>1.2606</v>
       </c>
-      <c r="E193" s="10" t="n">
+      <c r="E193" s="11" t="n">
         <v>-1.6176</v>
       </c>
-      <c r="F193" s="10" t="n">
+      <c r="F193" s="11" t="n">
         <v>0.6447</v>
       </c>
       <c r="I193" s="9" t="s">
@@ -7107,7 +7125,7 @@
       <c r="C195" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D195" s="13" t="s">
+      <c r="D195" s="15" t="s">
         <v>53</v>
       </c>
       <c r="F195" s="2"/>
@@ -7360,7 +7378,7 @@
       <c r="A202" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B202" s="16" t="n">
+      <c r="B202" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C202" s="6" t="n">
@@ -7369,13 +7387,13 @@
       <c r="D202" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E202" s="16" t="n">
+      <c r="E202" s="18" t="n">
         <v>0</v>
       </c>
       <c r="F202" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G202" s="16" t="n">
+      <c r="G202" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J202" s="2"/>
@@ -7457,7 +7475,7 @@
       <c r="Z204" s="2"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="17" t="s">
+      <c r="A205" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B205" s="6" t="s">
@@ -7482,7 +7500,7 @@
       <c r="Z205" s="2"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="17" t="s">
+      <c r="A206" s="19" t="s">
         <v>103</v>
       </c>
       <c r="B206" s="6" t="n">
@@ -7507,7 +7525,7 @@
       <c r="Z206" s="2"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="17" t="s">
+      <c r="A207" s="19" t="s">
         <v>104</v>
       </c>
       <c r="B207" s="6" t="n">
@@ -7532,7 +7550,7 @@
       <c r="Z207" s="2"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="17" t="s">
+      <c r="A208" s="19" t="s">
         <v>106</v>
       </c>
       <c r="B208" s="6" t="n">
@@ -7570,7 +7588,7 @@
       <c r="Z208" s="2"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="17" t="s">
+      <c r="A209" s="19" t="s">
         <v>108</v>
       </c>
       <c r="B209" s="6" t="n">
@@ -7958,10 +7976,10 @@
       <c r="A221" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B221" s="11" t="n">
+      <c r="B221" s="13" t="n">
         <v>0.00159</v>
       </c>
-      <c r="C221" s="25"/>
+      <c r="C221" s="28"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
@@ -8049,10 +8067,10 @@
       <c r="Z223" s="2"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="17" t="s">
+      <c r="A224" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B224" s="10" t="n">
+      <c r="B224" s="11" t="n">
         <v>1380</v>
       </c>
       <c r="I224" s="9" t="s">
@@ -8073,7 +8091,7 @@
       <c r="Z224" s="2"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="17" t="s">
+      <c r="A225" s="19" t="s">
         <v>121</v>
       </c>
       <c r="B225" s="6" t="n">
@@ -8097,10 +8115,10 @@
       <c r="Z225" s="2"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="17" t="s">
+      <c r="A226" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B226" s="23" t="n">
+      <c r="B226" s="26" t="n">
         <v>0.4</v>
       </c>
       <c r="I226" s="9" t="s">
@@ -8121,10 +8139,10 @@
       <c r="Z226" s="2"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="17" t="s">
+      <c r="A227" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="B227" s="23" t="n">
+      <c r="B227" s="26" t="n">
         <v>0.33</v>
       </c>
       <c r="I227" s="9" t="s">
